--- a/HALO.xlsx
+++ b/HALO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7CDE4-332C-4E14-A0D8-B5232C788F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDCD7A-BC84-414D-8AF0-2112101030D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2415" windowWidth="38700" windowHeight="15345" xr2:uid="{EFBABCF6-2DC2-4552-B0BE-FF1FC4AE1F86}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{EFBABCF6-2DC2-4552-B0BE-FF1FC4AE1F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>tc={1CEC60B9-89AE-499B-BBC9-AC2B5A923A59}</author>
   </authors>
   <commentList>
-    <comment ref="X6" authorId="0" shapeId="0" xr:uid="{1CEC60B9-89AE-499B-BBC9-AC2B5A923A59}">
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{1CEC60B9-89AE-499B-BBC9-AC2B5A923A59}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Price</t>
   </si>
@@ -211,13 +211,25 @@
   </si>
   <si>
     <t>Tlando (testosterone</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -236,12 +248,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -365,9 +371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,7 +667,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="X6" dT="2023-02-07T04:52:18.01" personId="{4E672162-D41B-47AF-8A8D-4E7B396441CE}" id="{1CEC60B9-89AE-499B-BBC9-AC2B5A923A59}">
+  <threadedComment ref="AA6" dT="2023-02-07T04:52:18.01" personId="{4E672162-D41B-47AF-8A8D-4E7B396441CE}" id="{1CEC60B9-89AE-499B-BBC9-AC2B5A923A59}">
     <text>1/10/23 Guidance: 815-845m</text>
   </threadedComment>
 </ThreadedComments>
@@ -671,7 +677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF115ACB-227D-4711-83D3-8545DAAED56E}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -683,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>44.14</v>
+        <v>63.69</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -694,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>135.21305799999999</v>
+        <v>126.678</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -709,7 +717,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>5968.3043801199992</v>
+        <v>8068.1218199999994</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -720,11 +728,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>147.159+118.425+0.5</f>
-        <v>266.084</v>
+        <f>187.864+341.166</f>
+        <v>529.03</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -735,11 +743,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>1491.156+13.315</f>
-        <v>1504.471</v>
+        <v>1502.5150000000001</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -751,7 +758,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>7206.6913801199989</v>
+        <v>9041.6068199999991</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -801,28 +808,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB087919-4803-4438-BCF8-90C3F9DFA3FB}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col min="3" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,47 +878,59 @@
       <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V2">
+      <c r="S2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2">
         <v>2020</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2021</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:AE2" si="0">+W2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AH2" si="0">+Z2+1</f>
         <v>2022</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -932,15 +951,22 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>111.74</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="X3" s="2">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <v>124.91800000000001</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="AA3" s="2">
         <f>SUM(K3:N3)</f>
         <v>99.551000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -964,12 +990,15 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="X4" s="2">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="AA4" s="2">
         <f>SUM(K4:N4)</f>
         <v>61.427</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,12 +1022,15 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="X5" s="2">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="AA5" s="2">
         <f>SUM(K5:N5)</f>
         <v>47.997999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1024,12 +1056,15 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="X6" s="5">
-        <f>+X3+X4+X5</f>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="AA6" s="5">
+        <f>+AA3+AA4+AA5</f>
         <v>208.976</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1053,8 +1088,11 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1080,8 +1118,11 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1105,8 +1146,11 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1130,8 +1174,11 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,8 +1204,11 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1184,8 +1234,11 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1211,8 +1264,11 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1238,8 +1294,11 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1309,7 @@
         <v>12.073</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1263,7 +1322,7 @@
         <v>91.538999999999987</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1276,7 +1335,7 @@
         <v>0.65672551959651893</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1300,6 +1359,9 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
